--- a/data/534/WSA/WSA.xlsx
+++ b/data/534/WSA/WSA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ABR2"/>
+  <dimension ref="A1:ABU2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4084,15 +4084,30 @@
       </c>
       <c r="ABP1" s="1" t="inlineStr">
         <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="ABQ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="ABR1" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="ABS1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="ABQ1" s="1" t="inlineStr">
+      <c r="ABT1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="ABR1" s="1" t="inlineStr">
+      <c r="ABU1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -6319,28 +6334,37 @@
         <v>9377</v>
       </c>
       <c r="ABL2" t="n">
-        <v>9727</v>
+        <v>9756</v>
       </c>
       <c r="ABM2" t="n">
-        <v>9835</v>
+        <v>10086</v>
       </c>
       <c r="ABN2" t="n">
-        <v>9465</v>
+        <v>9703</v>
       </c>
       <c r="ABO2" t="n">
-        <v>9793</v>
-      </c>
-      <c r="ABP2" t="inlineStr">
+        <v>10174</v>
+      </c>
+      <c r="ABP2" t="n">
+        <v>9896</v>
+      </c>
+      <c r="ABQ2" t="n">
+        <v>10506</v>
+      </c>
+      <c r="ABR2" t="n">
+        <v>10781</v>
+      </c>
+      <c r="ABS2" t="inlineStr">
         <is>
           <t>IPST0001</t>
         </is>
       </c>
-      <c r="ABQ2" t="inlineStr">
+      <c r="ABT2" t="inlineStr">
         <is>
           <t>Production of Crude Steel</t>
         </is>
       </c>
-      <c r="ABR2" t="inlineStr">
+      <c r="ABU2" t="inlineStr">
         <is>
           <t>Thousands of Metric Tons</t>
         </is>
